--- a/source_data/simple_1.xlsx
+++ b/source_data/simple_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBEC798-F372-8F48-B813-CB900CEDAC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5919001D-75ED-5D41-A5EA-94B7D2CEEE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68320" yWindow="2520" windowWidth="33260" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="68320" yWindow="2520" windowWidth="33260" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="262">
   <si>
     <t>Epoch</t>
   </si>
@@ -815,6 +815,24 @@
   </si>
   <si>
     <t>studyDesignDescription</t>
+  </si>
+  <si>
+    <t>procedureName</t>
+  </si>
+  <si>
+    <t>procedureDescription</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Test Eight</t>
+  </si>
+  <si>
+    <t>Test Nine</t>
   </si>
 </sst>
 </file>
@@ -951,10 +969,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1965,7 +1983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
@@ -1980,34 +1998,34 @@
       <c r="A1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -2035,54 +2053,54 @@
       <c r="A6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
@@ -2149,16 +2167,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3141,23 +3159,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="7" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" style="7" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>110</v>
       </c>
@@ -3165,16 +3184,22 @@
         <v>188</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -3182,10 +3207,16 @@
         <v>193</v>
       </c>
       <c r="C2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -3193,17 +3224,25 @@
         <v>193</v>
       </c>
       <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source_data/simple_1.xlsx
+++ b/source_data/simple_1.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5919001D-75ED-5D41-A5EA-94B7D2CEEE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AED798-90A2-2B4F-AACB-439AF5531D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68320" yWindow="2520" windowWidth="33260" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="68320" yWindow="2500" windowWidth="33260" windowHeight="19480" firstSheet="2" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId4"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId5"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId6"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId7"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId9"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId10"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId11"/>
-    <sheet name="configuration" sheetId="10" r:id="rId12"/>
+    <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
+    <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
+    <sheet name="studyDesignII" sheetId="6" r:id="rId7"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId8"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId9"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId10"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId11"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId12"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId13"/>
+    <sheet name="configuration" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -972,10 +974,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1581,6 +1583,209 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" style="7" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1739,7 +1944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1863,7 +2068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2020,34 +2225,34 @@
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -2167,22 +2372,48 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -2455,7 +2686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2544,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2636,7 +2867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -3044,207 +3275,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" style="7" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/source_data/simple_1.xlsx
+++ b/source_data/simple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AED798-90A2-2B4F-AACB-439AF5531D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18230AC2-0357-014B-B1F4-06AC9C56265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68320" yWindow="2500" windowWidth="33260" windowHeight="19480" firstSheet="2" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35040" yWindow="3820" windowWidth="33260" windowHeight="19480" firstSheet="2" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="283">
   <si>
     <t>Epoch</t>
   </si>
@@ -835,6 +835,69 @@
   </si>
   <si>
     <t>Test Nine</t>
+  </si>
+  <si>
+    <t>studyEpochName</t>
+  </si>
+  <si>
+    <t>studyEpochDescription</t>
+  </si>
+  <si>
+    <t>studyEpochType</t>
+  </si>
+  <si>
+    <t>Screening Epoch</t>
+  </si>
+  <si>
+    <t>SCREENING</t>
+  </si>
+  <si>
+    <t>Baseline Epoch</t>
+  </si>
+  <si>
+    <t>BASELINE</t>
+  </si>
+  <si>
+    <t>Treatment Epoch</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>Follow-up Epoch</t>
+  </si>
+  <si>
+    <t>FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>studyArmName</t>
+  </si>
+  <si>
+    <t>studyArmDescription</t>
+  </si>
+  <si>
+    <t>studyArmType</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginDescription</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginType</t>
+  </si>
+  <si>
+    <t>Active Substance</t>
+  </si>
+  <si>
+    <t>Active Comparator Arm</t>
+  </si>
+  <si>
+    <t>Data collected from subjects</t>
+  </si>
+  <si>
+    <t>Data Generated Within Study</t>
+  </si>
+  <si>
+    <t>Placebo Comparator Arm</t>
   </si>
 </sst>
 </file>
@@ -974,10 +1037,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2188,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
@@ -2225,34 +2288,34 @@
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -2372,16 +2435,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2389,26 +2452,151 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
